--- a/outputs/M1-S1-MEFIM.xlsx
+++ b/outputs/M1-S1-MEFIM.xlsx
@@ -934,22 +934,32 @@
           <t>MARSEILLE</t>
         </is>
       </c>
-      <c r="Y4" s="15" t="n"/>
-      <c r="Z4" s="14" t="n"/>
-      <c r="AA4" s="13" t="n"/>
+      <c r="Y4" s="15" t="n">
+        <v>210973</v>
+      </c>
+      <c r="Z4" s="14" t="inlineStr">
+        <is>
+          <t>M-M2 MIFIM ALT</t>
+        </is>
+      </c>
+      <c r="AA4" s="13" t="inlineStr">
+        <is>
+          <t>Manager en Evaluation et finance Immobilière 2ème année</t>
+        </is>
+      </c>
       <c r="AB4" s="15" t="inlineStr">
         <is>
-          <t>12h00</t>
+          <t>10h00</t>
         </is>
       </c>
       <c r="AC4" s="14" t="inlineStr">
         <is>
-          <t>16h00</t>
+          <t>11h00</t>
         </is>
       </c>
       <c r="AD4" s="15" t="inlineStr">
         <is>
-          <t>1h00</t>
+          <t>12 minutes</t>
         </is>
       </c>
       <c r="AE4" s="15" t="n"/>
@@ -1174,22 +1184,32 @@
           <t>MARSEILLE</t>
         </is>
       </c>
-      <c r="Y6" s="15" t="n"/>
-      <c r="Z6" s="14" t="n"/>
-      <c r="AA6" s="13" t="n"/>
+      <c r="Y6" s="15" t="n">
+        <v>210937</v>
+      </c>
+      <c r="Z6" s="14" t="inlineStr">
+        <is>
+          <t>M-M2 MAPI ALT 2</t>
+        </is>
+      </c>
+      <c r="AA6" s="13" t="inlineStr">
+        <is>
+          <t>Manager en Aménagement et Promotion Immobiliére 1ère année</t>
+        </is>
+      </c>
       <c r="AB6" s="15" t="inlineStr">
         <is>
-          <t>40h00</t>
+          <t>80h00</t>
         </is>
       </c>
       <c r="AC6" s="14" t="inlineStr">
         <is>
-          <t>12h00</t>
+          <t>24h00</t>
         </is>
       </c>
       <c r="AD6" s="15" t="inlineStr">
         <is>
-          <t>20 minutes</t>
+          <t>40 minutes</t>
         </is>
       </c>
       <c r="AE6" s="15" t="n"/>
@@ -1289,9 +1309,19 @@
           <t>MARSEILLE</t>
         </is>
       </c>
-      <c r="Y7" s="12" t="n"/>
-      <c r="Z7" s="17" t="n"/>
-      <c r="AA7" s="11" t="n"/>
+      <c r="Y7" s="12" t="n">
+        <v>210937</v>
+      </c>
+      <c r="Z7" s="17" t="inlineStr">
+        <is>
+          <t>M-M2 MAPI ALT 2</t>
+        </is>
+      </c>
+      <c r="AA7" s="11" t="inlineStr">
+        <is>
+          <t>Manager en Aménagement et Promotion Immobiliére 1ère année</t>
+        </is>
+      </c>
       <c r="AB7" s="12" t="inlineStr">
         <is>
           <t>43h00</t>
@@ -1644,22 +1674,32 @@
           <t>MARSEILLE</t>
         </is>
       </c>
-      <c r="Y10" s="15" t="n"/>
-      <c r="Z10" s="14" t="n"/>
-      <c r="AA10" s="13" t="n"/>
+      <c r="Y10" s="15" t="n">
+        <v>210973</v>
+      </c>
+      <c r="Z10" s="14" t="inlineStr">
+        <is>
+          <t>M-M2 MIFIM ALT</t>
+        </is>
+      </c>
+      <c r="AA10" s="13" t="inlineStr">
+        <is>
+          <t>Manager en Evaluation et finance Immobilière 2ème année</t>
+        </is>
+      </c>
       <c r="AB10" s="15" t="inlineStr">
         <is>
-          <t>44h30</t>
+          <t>13h00</t>
         </is>
       </c>
       <c r="AC10" s="14" t="inlineStr">
         <is>
+          <t>10h00</t>
+        </is>
+      </c>
+      <c r="AD10" s="15" t="inlineStr">
+        <is>
           <t>00h00</t>
-        </is>
-      </c>
-      <c r="AD10" s="15" t="inlineStr">
-        <is>
-          <t>10 minutes</t>
         </is>
       </c>
       <c r="AE10" s="15" t="n"/>
@@ -1784,7 +1824,7 @@
       </c>
       <c r="AD11" s="12" t="inlineStr">
         <is>
-          <t>45 minutes</t>
+          <t>00h00</t>
         </is>
       </c>
       <c r="AE11" s="12" t="n"/>
@@ -1899,12 +1939,12 @@
       </c>
       <c r="AB12" s="15" t="inlineStr">
         <is>
-          <t>20h30</t>
+          <t>12h00</t>
         </is>
       </c>
       <c r="AC12" s="14" t="inlineStr">
         <is>
-          <t>10h40</t>
+          <t>8h00</t>
         </is>
       </c>
       <c r="AD12" s="15" t="inlineStr">
@@ -2134,9 +2174,19 @@
           <t>MARSEILLE</t>
         </is>
       </c>
-      <c r="Y14" s="15" t="n"/>
-      <c r="Z14" s="14" t="n"/>
-      <c r="AA14" s="13" t="n"/>
+      <c r="Y14" s="15" t="n">
+        <v>210973</v>
+      </c>
+      <c r="Z14" s="14" t="inlineStr">
+        <is>
+          <t>M-M2 MIFIM ALT</t>
+        </is>
+      </c>
+      <c r="AA14" s="13" t="inlineStr">
+        <is>
+          <t>Manager en Evaluation et finance Immobilière 2ème année</t>
+        </is>
+      </c>
       <c r="AB14" s="15" t="inlineStr">
         <is>
           <t>00h00</t>
@@ -2260,7 +2310,7 @@
       </c>
       <c r="AB15" s="12" t="inlineStr">
         <is>
-          <t>8h00</t>
+          <t>6h00</t>
         </is>
       </c>
       <c r="AC15" s="17" t="inlineStr">
@@ -2370,17 +2420,27 @@
           <t>MARSEILLE</t>
         </is>
       </c>
-      <c r="Y16" s="15" t="n"/>
-      <c r="Z16" s="14" t="n"/>
-      <c r="AA16" s="13" t="n"/>
+      <c r="Y16" s="15" t="n">
+        <v>210973</v>
+      </c>
+      <c r="Z16" s="14" t="inlineStr">
+        <is>
+          <t>M-M2 MIFIM ALT</t>
+        </is>
+      </c>
+      <c r="AA16" s="13" t="inlineStr">
+        <is>
+          <t>Manager en Evaluation et finance Immobilière 2ème année</t>
+        </is>
+      </c>
       <c r="AB16" s="15" t="inlineStr">
         <is>
-          <t>12h00</t>
+          <t>62h00</t>
         </is>
       </c>
       <c r="AC16" s="14" t="inlineStr">
         <is>
-          <t>22h00</t>
+          <t>14h00</t>
         </is>
       </c>
       <c r="AD16" s="15" t="inlineStr">
@@ -2731,12 +2791,22 @@
           <t>MARSEILLE</t>
         </is>
       </c>
-      <c r="Y19" s="12" t="n"/>
-      <c r="Z19" s="17" t="n"/>
-      <c r="AA19" s="11" t="n"/>
+      <c r="Y19" s="12" t="n">
+        <v>210973</v>
+      </c>
+      <c r="Z19" s="17" t="inlineStr">
+        <is>
+          <t>M-M2 MIFIM ALT</t>
+        </is>
+      </c>
+      <c r="AA19" s="11" t="inlineStr">
+        <is>
+          <t>Manager en Evaluation et finance Immobilière 2ème année</t>
+        </is>
+      </c>
       <c r="AB19" s="12" t="inlineStr">
         <is>
-          <t>58h00</t>
+          <t>00h00</t>
         </is>
       </c>
       <c r="AC19" s="17" t="inlineStr">
@@ -2861,7 +2931,7 @@
       </c>
       <c r="AB20" s="15" t="inlineStr">
         <is>
-          <t>8h00</t>
+          <t>00h00</t>
         </is>
       </c>
       <c r="AC20" s="14" t="inlineStr">
@@ -3116,7 +3186,7 @@
       </c>
       <c r="AC22" s="14" t="inlineStr">
         <is>
-          <t>2h30</t>
+          <t>6h30</t>
         </is>
       </c>
       <c r="AD22" s="15" t="inlineStr">
